--- a/manuscript/distance_to_tads_summaries.xlsx
+++ b/manuscript/distance_to_tads_summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spiro Stilianoudakis\Documents\TAD_data_analysis\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD2457-6B09-4A58-862A-FBC71DB833FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B4F0B-88B9-47E1-9A4F-86F1FB231F5A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12435" windowHeight="4365" xr2:uid="{1F10129B-1898-4879-9ABB-CF29EBF21B4B}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>TAD in Bin</t>
   </si>
   <si>
-    <t>P-Value</t>
-  </si>
-  <si>
     <t>A_dist</t>
   </si>
   <si>
@@ -213,7 +210,10 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Mean Distance from Feature to Genomic Bin</t>
+    <t>T-test P-Value</t>
+  </si>
+  <si>
+    <t>KS P-Value</t>
   </si>
 </sst>
 </file>
@@ -249,8 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -570,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0D3369-1626-4F86-81A2-CF455B5D1DF7}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,10 +584,8 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -605,15 +602,18 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>16.690999999999999</v>
@@ -627,10 +627,13 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>16.218</v>
@@ -644,10 +647,13 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>13.856999999999999</v>
@@ -661,10 +667,13 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>15.313000000000001</v>
@@ -678,10 +687,13 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>16.327999999999999</v>
@@ -695,10 +707,13 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>17.146000000000001</v>
@@ -712,10 +727,13 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>14.739000000000001</v>
@@ -729,10 +747,13 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <v>15</v>
@@ -746,10 +767,13 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>14.564</v>
@@ -763,10 +787,13 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>17.015000000000001</v>
@@ -780,10 +807,13 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>16.199000000000002</v>
@@ -797,10 +827,13 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
         <v>17.193999999999999</v>
@@ -814,10 +847,13 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>15.221</v>
@@ -831,10 +867,13 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>15.430999999999999</v>
@@ -848,10 +887,13 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>15.973000000000001</v>
@@ -865,10 +907,13 @@
       <c r="E17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
         <v>17.789000000000001</v>
@@ -882,10 +927,13 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
         <v>17.018000000000001</v>
@@ -899,10 +947,13 @@
       <c r="E19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
         <v>14.974</v>
@@ -916,10 +967,13 @@
       <c r="E20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>17.013000000000002</v>
@@ -933,10 +987,13 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1">
         <v>14.760999999999999</v>
@@ -950,10 +1007,13 @@
       <c r="E22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1">
         <v>16.672000000000001</v>
@@ -967,10 +1027,13 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1">
         <v>16.603999999999999</v>
@@ -984,10 +1047,13 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
         <v>17.111000000000001</v>
@@ -1001,10 +1067,13 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1">
         <v>15.015000000000001</v>
@@ -1018,10 +1087,13 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1">
         <v>15.581</v>
@@ -1035,10 +1107,13 @@
       <c r="E27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1">
         <v>14.083</v>
@@ -1052,10 +1127,13 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1">
         <v>16.414000000000001</v>
@@ -1066,13 +1144,16 @@
       <c r="D29" s="1">
         <v>1.0109999999999999</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>1.83757784677831E-258</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>18.052</v>
@@ -1083,13 +1164,16 @@
       <c r="D30" s="1">
         <v>0.88100000000000001</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>7.6996991208410902E-267</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1">
         <v>18.832999999999998</v>
@@ -1097,16 +1181,19 @@
       <c r="C31" s="1">
         <v>17.966999999999999</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>0.86599999999999999</v>
       </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1">
         <v>15.853999999999999</v>
@@ -1114,16 +1201,19 @@
       <c r="C32" s="1">
         <v>15.125999999999999</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>0.72899999999999998</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>8.7280064700014598E-144</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>14.481999999999999</v>
@@ -1131,16 +1221,19 @@
       <c r="C33" s="1">
         <v>13.803000000000001</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>0.67900000000000005</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>2.2001062708848199E-153</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.576000000000001</v>
@@ -1148,16 +1241,19 @@
       <c r="C34" s="1">
         <v>12.909000000000001</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>4.8977946577056199E-176</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>13.829000000000001</v>
@@ -1165,16 +1261,19 @@
       <c r="C35" s="1">
         <v>13.225</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>0.60399999999999998</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>1.2055463063272399E-144</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>10.661</v>
@@ -1182,16 +1281,19 @@
       <c r="C36" s="1">
         <v>10.15</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>0.51100000000000001</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>2.4964390433679501E-93</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1">
         <v>16.245000000000001</v>
@@ -1199,16 +1301,19 @@
       <c r="C37" s="1">
         <v>15.859</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>0.38600000000000001</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>1.3590070813686701E-56</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>14.21</v>
@@ -1216,16 +1321,19 @@
       <c r="C38" s="1">
         <v>13.829000000000001</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>0.38200000000000001</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>1.4568837174345001E-68</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1">
         <v>21.33</v>
@@ -1233,16 +1341,19 @@
       <c r="C39" s="1">
         <v>20.951000000000001</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>0.38</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>1.42391111823373E-55</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1">
         <v>10.265000000000001</v>
@@ -1250,16 +1361,19 @@
       <c r="C40" s="1">
         <v>9.9350000000000005</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>0.33</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>1.2061104622311901E-36</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>18.41</v>
@@ -1267,16 +1381,19 @@
       <c r="C41" s="1">
         <v>18.704999999999998</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>0.29499999999999998</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>1.1969058398389599E-49</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>17.952000000000002</v>
@@ -1284,16 +1401,19 @@
       <c r="C42" s="1">
         <v>18.233000000000001</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>0.28100000000000003</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>6.4250673525405002E-38</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>10.904</v>
@@ -1301,16 +1421,19 @@
       <c r="C43" s="1">
         <v>10.66</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>0.24299999999999999</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>8.2416073464188796E-22</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="2">
+        <v>3.5305092183079997E-14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>19.948</v>
@@ -1318,16 +1441,19 @@
       <c r="C44" s="1">
         <v>19.710999999999999</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>0.23699999999999999</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>1.03733593268222E-21</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>16.891999999999999</v>
@@ -1335,16 +1461,19 @@
       <c r="C45" s="1">
         <v>16.690000000000001</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>0.20200000000000001</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>1.3756490699512299E-20</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1">
         <v>18.715</v>
@@ -1352,16 +1481,19 @@
       <c r="C46" s="1">
         <v>18.885999999999999</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>8.5722494958719604E-16</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="2">
+        <v>2.0650148258027899E-14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1">
         <v>10.489000000000001</v>
@@ -1369,16 +1501,19 @@
       <c r="C47" s="1">
         <v>10.319000000000001</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>0.17</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>4.5050263764075998E-11</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>12.848000000000001</v>
@@ -1386,16 +1521,19 @@
       <c r="C48" s="1">
         <v>13.010999999999999</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>7.31511997283726E-13</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="2">
+        <v>2.8551605524285199E-12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1">
         <v>21.481999999999999</v>
@@ -1403,16 +1541,19 @@
       <c r="C49" s="1">
         <v>21.638000000000002</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>0.156</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>3.5503140483452199E-12</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="2">
+        <v>2.5797879943390001E-8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>17.155000000000001</v>
@@ -1420,16 +1561,19 @@
       <c r="C50" s="1">
         <v>17.001000000000001</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>0.153</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>2.4013338589758701E-12</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="2">
+        <v>2.0650148258027899E-14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1">
         <v>22.654</v>
@@ -1437,16 +1581,19 @@
       <c r="C51" s="1">
         <v>22.78</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>0.126</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>2.6721366457825899E-7</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="1">
+        <v>9.0384597929427102E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1">
         <v>11.412000000000001</v>
@@ -1454,16 +1601,19 @@
       <c r="C52" s="1">
         <v>11.52</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>0.107</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>5.4190363262966597E-7</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="2">
+        <v>3.3781577202241E-8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1">
         <v>18.018999999999998</v>
@@ -1471,16 +1621,19 @@
       <c r="C53" s="1">
         <v>18.12</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>0.1</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>2.46348583754604E-5</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="1">
+        <v>1.3173914731028399E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1">
         <v>20.18</v>
@@ -1494,10 +1647,13 @@
       <c r="E54" s="1">
         <v>3.2718622607145101E-5</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="2">
+        <v>1.83646641227497E-8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1">
         <v>17.145</v>
@@ -1511,10 +1667,13 @@
       <c r="E55" s="1">
         <v>4.9735861380675699E-4</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="1">
+        <v>3.3172730507513597E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1">
         <v>15.429</v>
@@ -1528,10 +1687,13 @@
       <c r="E56" s="1">
         <v>1.1396240513606899E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="1">
+        <v>4.1755166269620298E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1">
         <v>14.093</v>
@@ -1545,10 +1707,13 @@
       <c r="E57" s="1">
         <v>3.8775168359048901E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="1">
+        <v>4.1528574246007803E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1">
         <v>17.475000000000001</v>
@@ -1562,10 +1727,13 @@
       <c r="E58" s="1">
         <v>2.4862163009930799E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="1">
+        <v>0.111693559220162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1">
         <v>21.212</v>
@@ -1579,17 +1747,18 @@
       <c r="E59" s="1">
         <v>0.956516124415278</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="1">
+        <v>0.530904190289756</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/manuscript/distance_to_tads_summaries.xlsx
+++ b/manuscript/distance_to_tads_summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spiro Stilianoudakis\Documents\TAD_data_analysis\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B4F0B-88B9-47E1-9A4F-86F1FB231F5A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F22534A-9335-4D0A-AA90-B11BAAD60147}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12435" windowHeight="4365" xr2:uid="{1F10129B-1898-4879-9ABB-CF29EBF21B4B}"/>
   </bookViews>
